--- a/biology/Botanique/Ferula_rubricaulis/Ferula_rubricaulis.xlsx
+++ b/biology/Botanique/Ferula_rubricaulis/Ferula_rubricaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferula rubricaulis est une espèce de plantes de la famille des Apiacées. Elle est endémique d'Iran. La plante serait l'une des sources possibles du galbanum, une gomme-résine utilisée en médecine traditionnelle et en parfumerie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante terrestre dicotylédone qui fait partie des ombellifères. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique d'Iran[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique d'Iran.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Nomenclature en systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferula rubricaulis a été publiée en 1856 par le botaniste suisse Pierre Edmond Boissier[3]. Son épithète spécifique, rubricaulis, signifie « aux tiges rouges »[4].
-Dans la classification phylogénétique de l'APG, elle est assignée au genre Ferula de la famille des Apiaceae, dans l'ordre des Apiales[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferula rubricaulis a été publiée en 1856 par le botaniste suisse Pierre Edmond Boissier. Son épithète spécifique, rubricaulis, signifie « aux tiges rouges ».
+Dans la classification phylogénétique de l'APG, elle est assignée au genre Ferula de la famille des Apiaceae, dans l'ordre des Apiales.
 </t>
         </is>
       </c>
